--- a/docs/assets/download/SuppData_S2.xlsx
+++ b/docs/assets/download/SuppData_S2.xlsx
@@ -11456,7 +11456,7 @@
         <v>1456</v>
       </c>
       <c r="Z3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA3" t="s">
         <v>1457</v>
@@ -11560,7 +11560,7 @@
         <v>1456</v>
       </c>
       <c r="Z4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA4" t="s">
         <v>1457</v>
@@ -11869,7 +11869,7 @@
         <v>1450</v>
       </c>
       <c r="Y7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z7" t="s">
         <v>1456</v>
@@ -11979,7 +11979,7 @@
         <v>1457</v>
       </c>
       <c r="AA8" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB8" t="s">
         <v>1455</v>
@@ -12288,7 +12288,7 @@
         <v>1455</v>
       </c>
       <c r="Z11" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA11" t="s">
         <v>1457</v>
@@ -12600,7 +12600,7 @@
         <v>1456</v>
       </c>
       <c r="Z14" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA14" t="s">
         <v>1457</v>
@@ -12808,7 +12808,7 @@
         <v>1455</v>
       </c>
       <c r="Z16" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA16" t="s">
         <v>1457</v>
@@ -12912,7 +12912,7 @@
         <v>1455</v>
       </c>
       <c r="Z17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA17" t="s">
         <v>1457</v>
@@ -13022,7 +13022,7 @@
         <v>1455</v>
       </c>
       <c r="AB18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC18" t="s">
         <v>50</v>
@@ -13126,7 +13126,7 @@
         <v>1457</v>
       </c>
       <c r="AB19" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC19" t="s">
         <v>51</v>
@@ -13221,13 +13221,13 @@
         <v>1451</v>
       </c>
       <c r="Y20" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z20" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA20" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB20" t="s">
         <v>1456</v>
@@ -13646,7 +13646,7 @@
         <v>1457</v>
       </c>
       <c r="AB24" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC24" t="s">
         <v>56</v>
@@ -13741,7 +13741,7 @@
         <v>1453</v>
       </c>
       <c r="Y25" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z25" t="s">
         <v>1457</v>
@@ -13848,7 +13848,7 @@
         <v>1455</v>
       </c>
       <c r="Z26" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA26" t="s">
         <v>1456</v>
@@ -13952,7 +13952,7 @@
         <v>1456</v>
       </c>
       <c r="Z27" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA27" t="s">
         <v>1457</v>
@@ -14053,7 +14053,7 @@
         <v>1451</v>
       </c>
       <c r="Y28" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z28" t="s">
         <v>1457</v>
@@ -14469,13 +14469,13 @@
         <v>1453</v>
       </c>
       <c r="Y32" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z32" t="s">
         <v>1456</v>
       </c>
       <c r="AA32" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB32" t="s">
         <v>1457</v>
@@ -14573,10 +14573,10 @@
         <v>1453</v>
       </c>
       <c r="Y33" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z33" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA33" t="s">
         <v>1457</v>
@@ -14680,7 +14680,7 @@
         <v>1455</v>
       </c>
       <c r="Z34" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA34" t="s">
         <v>1457</v>
@@ -15093,7 +15093,7 @@
         <v>1453</v>
       </c>
       <c r="Y38" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z38" t="s">
         <v>1457</v>
@@ -15616,7 +15616,7 @@
         <v>1456</v>
       </c>
       <c r="Z43" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA43" t="s">
         <v>1455</v>
@@ -15827,7 +15827,7 @@
         <v>1457</v>
       </c>
       <c r="AA45" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB45" t="s">
         <v>1456</v>
@@ -16237,7 +16237,7 @@
         <v>1453</v>
       </c>
       <c r="Y49" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z49" t="s">
         <v>1457</v>
@@ -16347,7 +16347,7 @@
         <v>1457</v>
       </c>
       <c r="AA50" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB50" t="s">
         <v>1455</v>
@@ -16454,7 +16454,7 @@
         <v>1457</v>
       </c>
       <c r="AB51" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC51" t="s">
         <v>83</v>
@@ -16864,7 +16864,7 @@
         <v>1456</v>
       </c>
       <c r="Z55" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA55" t="s">
         <v>1457</v>
@@ -17384,7 +17384,7 @@
         <v>1455</v>
       </c>
       <c r="Z60" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA60" t="s">
         <v>1455</v>
@@ -18005,7 +18005,7 @@
         <v>1453</v>
       </c>
       <c r="Y66" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z66" t="s">
         <v>1457</v>
@@ -19048,7 +19048,7 @@
         <v>1455</v>
       </c>
       <c r="Z76" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA76" t="s">
         <v>1457</v>
@@ -19155,7 +19155,7 @@
         <v>1457</v>
       </c>
       <c r="AA77" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB77" t="s">
         <v>1455</v>
@@ -19253,10 +19253,10 @@
         <v>1451</v>
       </c>
       <c r="Y78" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z78" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA78" t="s">
         <v>1456</v>
@@ -19357,7 +19357,7 @@
         <v>1450</v>
       </c>
       <c r="Y79" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z79" t="s">
         <v>1456</v>
@@ -19990,7 +19990,7 @@
         <v>1457</v>
       </c>
       <c r="AB85" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AC85" t="s">
         <v>117</v>
@@ -20085,7 +20085,7 @@
         <v>1450</v>
       </c>
       <c r="Y86" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z86" t="s">
         <v>1455</v>
@@ -20198,7 +20198,7 @@
         <v>1457</v>
       </c>
       <c r="AB87" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AC87" t="s">
         <v>119</v>
@@ -20501,7 +20501,7 @@
         <v>1453</v>
       </c>
       <c r="Y90" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z90" t="s">
         <v>1457</v>
@@ -20608,7 +20608,7 @@
         <v>1456</v>
       </c>
       <c r="Z91" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA91" t="s">
         <v>1455</v>
@@ -20813,7 +20813,7 @@
         <v>1451</v>
       </c>
       <c r="Y93" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z93" t="s">
         <v>1457</v>
@@ -21021,7 +21021,7 @@
         <v>1453</v>
       </c>
       <c r="Y95" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z95" t="s">
         <v>1457</v>
@@ -21030,7 +21030,7 @@
         <v>1455</v>
       </c>
       <c r="AB95" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC95" t="s">
         <v>127</v>
@@ -21437,7 +21437,7 @@
         <v>1450</v>
       </c>
       <c r="Y99" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z99" t="s">
         <v>1456</v>
@@ -21645,7 +21645,7 @@
         <v>1453</v>
       </c>
       <c r="Y101" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z101" t="s">
         <v>1456</v>
@@ -21749,7 +21749,7 @@
         <v>1452</v>
       </c>
       <c r="Y102" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z102" t="s">
         <v>1456</v>
@@ -21856,7 +21856,7 @@
         <v>1455</v>
       </c>
       <c r="Z103" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA103" t="s">
         <v>1457</v>
@@ -21960,7 +21960,7 @@
         <v>1455</v>
       </c>
       <c r="Z104" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA104" t="s">
         <v>1457</v>
@@ -22061,7 +22061,7 @@
         <v>1452</v>
       </c>
       <c r="Y105" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z105" t="s">
         <v>1457</v>
@@ -22275,7 +22275,7 @@
         <v>1455</v>
       </c>
       <c r="AA107" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB107" t="s">
         <v>1457</v>
@@ -22902,7 +22902,7 @@
         <v>1455</v>
       </c>
       <c r="AB113" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC113" t="s">
         <v>145</v>
@@ -23107,7 +23107,7 @@
         <v>1455</v>
       </c>
       <c r="AA115" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB115" t="s">
         <v>1455</v>
@@ -23208,7 +23208,7 @@
         <v>1456</v>
       </c>
       <c r="Z116" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA116" t="s">
         <v>1457</v>
@@ -23318,7 +23318,7 @@
         <v>1457</v>
       </c>
       <c r="AB117" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC117" t="s">
         <v>149</v>
@@ -23526,7 +23526,7 @@
         <v>1457</v>
       </c>
       <c r="AB119" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AC119" t="s">
         <v>151</v>
@@ -23630,7 +23630,7 @@
         <v>1456</v>
       </c>
       <c r="AB120" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC120" t="s">
         <v>152</v>
@@ -24037,7 +24037,7 @@
         <v>1453</v>
       </c>
       <c r="Y124" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z124" t="s">
         <v>1455</v>
@@ -24046,7 +24046,7 @@
         <v>1457</v>
       </c>
       <c r="AB124" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC124" t="s">
         <v>156</v>
@@ -24453,7 +24453,7 @@
         <v>1450</v>
       </c>
       <c r="Y128" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z128" t="s">
         <v>1455</v>
@@ -24560,7 +24560,7 @@
         <v>1457</v>
       </c>
       <c r="Z129" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA129" t="s">
         <v>1457</v>
@@ -24872,7 +24872,7 @@
         <v>1456</v>
       </c>
       <c r="Z132" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA132" t="s">
         <v>1457</v>
@@ -25077,7 +25077,7 @@
         <v>1453</v>
       </c>
       <c r="Y134" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z134" t="s">
         <v>1457</v>
@@ -25294,7 +25294,7 @@
         <v>1455</v>
       </c>
       <c r="AB136" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC136" t="s">
         <v>168</v>
@@ -25389,7 +25389,7 @@
         <v>1453</v>
       </c>
       <c r="Y137" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z137" t="s">
         <v>1457</v>
@@ -25710,7 +25710,7 @@
         <v>1457</v>
       </c>
       <c r="AB140" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC140" t="s">
         <v>172</v>
@@ -26334,7 +26334,7 @@
         <v>1457</v>
       </c>
       <c r="AB146" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC146" t="s">
         <v>178</v>
@@ -26646,7 +26646,7 @@
         <v>1456</v>
       </c>
       <c r="AB149" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC149" t="s">
         <v>181</v>
@@ -26854,7 +26854,7 @@
         <v>1457</v>
       </c>
       <c r="AB151" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC151" t="s">
         <v>183</v>
@@ -26955,7 +26955,7 @@
         <v>1455</v>
       </c>
       <c r="AA152" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB152" t="s">
         <v>1455</v>
@@ -27371,10 +27371,10 @@
         <v>1457</v>
       </c>
       <c r="AA156" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB156" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC156" t="s">
         <v>188</v>
@@ -27472,7 +27472,7 @@
         <v>1457</v>
       </c>
       <c r="Z157" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA157" t="s">
         <v>1457</v>
@@ -27677,7 +27677,7 @@
         <v>1450</v>
       </c>
       <c r="Y159" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z159" t="s">
         <v>1456</v>
@@ -27781,7 +27781,7 @@
         <v>1451</v>
       </c>
       <c r="Y160" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z160" t="s">
         <v>1455</v>
@@ -27790,7 +27790,7 @@
         <v>1457</v>
       </c>
       <c r="AB160" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC160" t="s">
         <v>192</v>
@@ -28096,7 +28096,7 @@
         <v>1455</v>
       </c>
       <c r="Z163" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA163" t="s">
         <v>1457</v>
@@ -28509,7 +28509,7 @@
         <v>1453</v>
       </c>
       <c r="Y167" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z167" t="s">
         <v>1457</v>
@@ -28622,7 +28622,7 @@
         <v>1456</v>
       </c>
       <c r="AB168" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC168" t="s">
         <v>200</v>
@@ -28934,7 +28934,7 @@
         <v>1457</v>
       </c>
       <c r="AB171" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC171" t="s">
         <v>203</v>
@@ -29448,10 +29448,10 @@
         <v>1456</v>
       </c>
       <c r="Z176" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA176" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB176" t="s">
         <v>1457</v>
@@ -29766,7 +29766,7 @@
         <v>1457</v>
       </c>
       <c r="AB179" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC179" t="s">
         <v>211</v>
@@ -29864,7 +29864,7 @@
         <v>1455</v>
       </c>
       <c r="Z180" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA180" t="s">
         <v>1457</v>
@@ -29968,10 +29968,10 @@
         <v>1457</v>
       </c>
       <c r="Z181" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA181" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AB181" t="s">
         <v>1457</v>
@@ -30702,7 +30702,7 @@
         <v>1457</v>
       </c>
       <c r="AB188" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC188" t="s">
         <v>220</v>
@@ -31005,10 +31005,10 @@
         <v>1453</v>
       </c>
       <c r="Y191" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z191" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA191" t="s">
         <v>1457</v>
@@ -31115,7 +31115,7 @@
         <v>1457</v>
       </c>
       <c r="AA192" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB192" t="s">
         <v>1456</v>
@@ -31213,7 +31213,7 @@
         <v>1453</v>
       </c>
       <c r="Y193" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z193" t="s">
         <v>1457</v>
@@ -31320,7 +31320,7 @@
         <v>1457</v>
       </c>
       <c r="Z194" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA194" t="s">
         <v>1457</v>
@@ -31534,7 +31534,7 @@
         <v>1457</v>
       </c>
       <c r="AB196" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC196" t="s">
         <v>228</v>
@@ -31840,7 +31840,7 @@
         <v>1455</v>
       </c>
       <c r="Z199" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA199" t="s">
         <v>1457</v>
@@ -32048,7 +32048,7 @@
         <v>1457</v>
       </c>
       <c r="Z201" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA201" t="s">
         <v>1457</v>
@@ -32366,7 +32366,7 @@
         <v>1457</v>
       </c>
       <c r="AB204" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC204" t="s">
         <v>236</v>
@@ -32461,7 +32461,7 @@
         <v>1451</v>
       </c>
       <c r="Y205" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z205" t="s">
         <v>1457</v>
@@ -33088,13 +33088,13 @@
         <v>1455</v>
       </c>
       <c r="Z211" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA211" t="s">
         <v>1455</v>
       </c>
       <c r="AB211" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC211" t="s">
         <v>243</v>
@@ -33302,7 +33302,7 @@
         <v>1457</v>
       </c>
       <c r="AB213" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC213" t="s">
         <v>245</v>
@@ -33718,7 +33718,7 @@
         <v>1455</v>
       </c>
       <c r="AB217" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC217" t="s">
         <v>249</v>
@@ -34024,7 +34024,7 @@
         <v>1455</v>
       </c>
       <c r="Z220" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA220" t="s">
         <v>1455</v>
@@ -34229,7 +34229,7 @@
         <v>1453</v>
       </c>
       <c r="Y222" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z222" t="s">
         <v>1457</v>
@@ -34437,10 +34437,10 @@
         <v>1453</v>
       </c>
       <c r="Y224" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z224" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA224" t="s">
         <v>1457</v>
@@ -34648,7 +34648,7 @@
         <v>1457</v>
       </c>
       <c r="Z226" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA226" t="s">
         <v>1457</v>
@@ -34856,7 +34856,7 @@
         <v>1457</v>
       </c>
       <c r="Z228" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA228" t="s">
         <v>1456</v>
@@ -35171,7 +35171,7 @@
         <v>1455</v>
       </c>
       <c r="AA231" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB231" t="s">
         <v>1457</v>
@@ -35477,7 +35477,7 @@
         <v>1450</v>
       </c>
       <c r="Y234" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z234" t="s">
         <v>1456</v>
@@ -35997,7 +35997,7 @@
         <v>1453</v>
       </c>
       <c r="Y239" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z239" t="s">
         <v>1457</v>
@@ -36214,7 +36214,7 @@
         <v>1457</v>
       </c>
       <c r="AB241" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC241" t="s">
         <v>273</v>
@@ -36520,10 +36520,10 @@
         <v>1455</v>
       </c>
       <c r="Z244" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA244" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AB244" t="s">
         <v>1457</v>
@@ -36734,7 +36734,7 @@
         <v>1457</v>
       </c>
       <c r="AB246" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC246" t="s">
         <v>278</v>
@@ -36832,7 +36832,7 @@
         <v>1456</v>
       </c>
       <c r="Z247" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA247" t="s">
         <v>1457</v>
@@ -37040,13 +37040,13 @@
         <v>1456</v>
       </c>
       <c r="Z249" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA249" t="s">
         <v>1457</v>
       </c>
       <c r="AB249" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC249" t="s">
         <v>281</v>
@@ -37144,7 +37144,7 @@
         <v>1457</v>
       </c>
       <c r="Z250" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA250" t="s">
         <v>1457</v>
@@ -37771,7 +37771,7 @@
         <v>1455</v>
       </c>
       <c r="AA256" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB256" t="s">
         <v>1457</v>
@@ -38086,7 +38086,7 @@
         <v>1457</v>
       </c>
       <c r="AB259" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC259" t="s">
         <v>291</v>
@@ -38288,13 +38288,13 @@
         <v>1456</v>
       </c>
       <c r="Z261" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA261" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB261" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC261" t="s">
         <v>293</v>
@@ -39126,7 +39126,7 @@
         <v>1456</v>
       </c>
       <c r="AB269" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC269" t="s">
         <v>301</v>
@@ -39539,7 +39539,7 @@
         <v>1457</v>
       </c>
       <c r="AA273" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB273" t="s">
         <v>1457</v>
@@ -39851,10 +39851,10 @@
         <v>1455</v>
       </c>
       <c r="AA276" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB276" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AC276" t="s">
         <v>308</v>
@@ -40062,7 +40062,7 @@
         <v>1457</v>
       </c>
       <c r="AB278" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC278" t="s">
         <v>310</v>
@@ -40166,7 +40166,7 @@
         <v>1457</v>
       </c>
       <c r="AB279" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AC279" t="s">
         <v>311</v>
@@ -40264,7 +40264,7 @@
         <v>1455</v>
       </c>
       <c r="Z280" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA280" t="s">
         <v>1457</v>
@@ -40677,7 +40677,7 @@
         <v>1451</v>
       </c>
       <c r="Y284" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z284" t="s">
         <v>1455</v>
@@ -40989,7 +40989,7 @@
         <v>1451</v>
       </c>
       <c r="Y287" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z287" t="s">
         <v>1456</v>
@@ -40998,7 +40998,7 @@
         <v>1457</v>
       </c>
       <c r="AB287" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC287" t="s">
         <v>319</v>
@@ -41203,7 +41203,7 @@
         <v>1457</v>
       </c>
       <c r="AA289" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB289" t="s">
         <v>1456</v>
@@ -41301,7 +41301,7 @@
         <v>1453</v>
       </c>
       <c r="Y290" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z290" t="s">
         <v>1457</v>
@@ -43803,7 +43803,7 @@
         <v>1455</v>
       </c>
       <c r="AA314" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB314" t="s">
         <v>1457</v>
@@ -43907,7 +43907,7 @@
         <v>1455</v>
       </c>
       <c r="AA315" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB315" t="s">
         <v>1457</v>
@@ -44008,7 +44008,7 @@
         <v>1455</v>
       </c>
       <c r="Z316" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA316" t="s">
         <v>1457</v>
@@ -44118,7 +44118,7 @@
         <v>1455</v>
       </c>
       <c r="AB317" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC317" t="s">
         <v>349</v>
@@ -44323,7 +44323,7 @@
         <v>1455</v>
       </c>
       <c r="AA319" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB319" t="s">
         <v>1457</v>
@@ -44427,7 +44427,7 @@
         <v>1457</v>
       </c>
       <c r="AA320" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB320" t="s">
         <v>1455</v>
@@ -44733,7 +44733,7 @@
         <v>1450</v>
       </c>
       <c r="Y323" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z323" t="s">
         <v>1456</v>
@@ -44840,7 +44840,7 @@
         <v>1456</v>
       </c>
       <c r="Z324" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA324" t="s">
         <v>1457</v>
@@ -45045,7 +45045,7 @@
         <v>1450</v>
       </c>
       <c r="Y326" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z326" t="s">
         <v>1455</v>
@@ -45155,7 +45155,7 @@
         <v>1455</v>
       </c>
       <c r="AA327" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB327" t="s">
         <v>1457</v>
@@ -45360,7 +45360,7 @@
         <v>1456</v>
       </c>
       <c r="Z329" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA329" t="s">
         <v>1457</v>
@@ -45981,13 +45981,13 @@
         <v>1451</v>
       </c>
       <c r="Y335" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z335" t="s">
         <v>1455</v>
       </c>
       <c r="AA335" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB335" t="s">
         <v>1457</v>
@@ -46094,7 +46094,7 @@
         <v>1457</v>
       </c>
       <c r="AB336" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC336" t="s">
         <v>368</v>
@@ -46608,7 +46608,7 @@
         <v>1457</v>
       </c>
       <c r="Z341" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA341" t="s">
         <v>1457</v>
@@ -47021,7 +47021,7 @@
         <v>1453</v>
       </c>
       <c r="Y345" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z345" t="s">
         <v>1455</v>
@@ -47030,7 +47030,7 @@
         <v>1457</v>
       </c>
       <c r="AB345" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC345" t="s">
         <v>377</v>
@@ -47437,7 +47437,7 @@
         <v>1453</v>
       </c>
       <c r="Y349" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z349" t="s">
         <v>1457</v>
@@ -47966,7 +47966,7 @@
         <v>1457</v>
       </c>
       <c r="AB354" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC354" t="s">
         <v>386</v>
@@ -48064,7 +48064,7 @@
         <v>1455</v>
       </c>
       <c r="Z355" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA355" t="s">
         <v>1457</v>
@@ -48477,7 +48477,7 @@
         <v>1453</v>
       </c>
       <c r="Y359" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z359" t="s">
         <v>1457</v>
@@ -48792,7 +48792,7 @@
         <v>1457</v>
       </c>
       <c r="Z362" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA362" t="s">
         <v>1457</v>
@@ -49101,10 +49101,10 @@
         <v>1452</v>
       </c>
       <c r="Y365" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z365" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA365" t="s">
         <v>1455</v>
@@ -49205,7 +49205,7 @@
         <v>1451</v>
       </c>
       <c r="Y366" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z366" t="s">
         <v>1455</v>
@@ -49517,10 +49517,10 @@
         <v>1451</v>
       </c>
       <c r="Y369" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z369" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA369" t="s">
         <v>1457</v>
@@ -49621,7 +49621,7 @@
         <v>1453</v>
       </c>
       <c r="Y370" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z370" t="s">
         <v>1457</v>
@@ -49838,7 +49838,7 @@
         <v>1457</v>
       </c>
       <c r="AB372" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC372" t="s">
         <v>404</v>
@@ -50563,10 +50563,10 @@
         <v>1455</v>
       </c>
       <c r="AA379" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB379" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC379" t="s">
         <v>411</v>
@@ -50765,7 +50765,7 @@
         <v>1450</v>
       </c>
       <c r="Y381" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z381" t="s">
         <v>1456</v>
@@ -50976,7 +50976,7 @@
         <v>1457</v>
       </c>
       <c r="Z383" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA383" t="s">
         <v>1455</v>
@@ -51077,10 +51077,10 @@
         <v>1452</v>
       </c>
       <c r="Y384" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z384" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA384" t="s">
         <v>1457</v>
@@ -51389,7 +51389,7 @@
         <v>1453</v>
       </c>
       <c r="Y387" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z387" t="s">
         <v>1457</v>
@@ -51600,7 +51600,7 @@
         <v>1456</v>
       </c>
       <c r="Z389" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA389" t="s">
         <v>1457</v>
@@ -51710,7 +51710,7 @@
         <v>1456</v>
       </c>
       <c r="AB390" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC390" t="s">
         <v>422</v>
@@ -52016,7 +52016,7 @@
         <v>1456</v>
       </c>
       <c r="Z393" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA393" t="s">
         <v>1457</v>
@@ -52120,7 +52120,7 @@
         <v>1457</v>
       </c>
       <c r="Z394" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA394" t="s">
         <v>1457</v>
@@ -52221,7 +52221,7 @@
         <v>1451</v>
       </c>
       <c r="Y395" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z395" t="s">
         <v>1456</v>
@@ -53472,7 +53472,7 @@
         <v>1456</v>
       </c>
       <c r="Z407" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA407" t="s">
         <v>1457</v>
@@ -53579,7 +53579,7 @@
         <v>1455</v>
       </c>
       <c r="AA408" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AB408" t="s">
         <v>1456</v>
@@ -54099,7 +54099,7 @@
         <v>1457</v>
       </c>
       <c r="AA413" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB413" t="s">
         <v>1455</v>
@@ -54197,7 +54197,7 @@
         <v>1450</v>
       </c>
       <c r="Y414" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z414" t="s">
         <v>1455</v>
@@ -54414,7 +54414,7 @@
         <v>1457</v>
       </c>
       <c r="AB416" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC416" t="s">
         <v>448</v>
@@ -54619,7 +54619,7 @@
         <v>1455</v>
       </c>
       <c r="AA418" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB418" t="s">
         <v>1457</v>
@@ -54824,7 +54824,7 @@
         <v>1457</v>
       </c>
       <c r="Z420" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA420" t="s">
         <v>1455</v>
@@ -55549,7 +55549,7 @@
         <v>1450</v>
       </c>
       <c r="Y427" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z427" t="s">
         <v>1456</v>
@@ -55656,7 +55656,7 @@
         <v>1455</v>
       </c>
       <c r="Z428" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA428" t="s">
         <v>1457</v>
@@ -55861,7 +55861,7 @@
         <v>1453</v>
       </c>
       <c r="Y430" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z430" t="s">
         <v>1456</v>
@@ -56173,7 +56173,7 @@
         <v>1450</v>
       </c>
       <c r="Y433" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z433" t="s">
         <v>1456</v>
@@ -56283,10 +56283,10 @@
         <v>1456</v>
       </c>
       <c r="AA434" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB434" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC434" t="s">
         <v>466</v>
@@ -57222,7 +57222,7 @@
         <v>1457</v>
       </c>
       <c r="AB443" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC443" t="s">
         <v>475</v>
@@ -57736,7 +57736,7 @@
         <v>1456</v>
       </c>
       <c r="Z448" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA448" t="s">
         <v>1457</v>
@@ -58048,7 +58048,7 @@
         <v>1457</v>
       </c>
       <c r="Z451" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA451" t="s">
         <v>1457</v>
@@ -58149,10 +58149,10 @@
         <v>1451</v>
       </c>
       <c r="Y452" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z452" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA452" t="s">
         <v>1455</v>
@@ -58675,7 +58675,7 @@
         <v>1455</v>
       </c>
       <c r="AA457" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AB457" t="s">
         <v>1456</v>
@@ -59189,10 +59189,10 @@
         <v>1451</v>
       </c>
       <c r="Y462" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z462" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA462" t="s">
         <v>1455</v>
@@ -59299,7 +59299,7 @@
         <v>1457</v>
       </c>
       <c r="AA463" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB463" t="s">
         <v>1456</v>
@@ -59709,7 +59709,7 @@
         <v>1453</v>
       </c>
       <c r="Y467" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z467" t="s">
         <v>1456</v>
@@ -59816,7 +59816,7 @@
         <v>1455</v>
       </c>
       <c r="Z468" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA468" t="s">
         <v>1457</v>
@@ -60648,7 +60648,7 @@
         <v>1457</v>
       </c>
       <c r="Z476" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA476" t="s">
         <v>1455</v>
@@ -60957,10 +60957,10 @@
         <v>1453</v>
       </c>
       <c r="Y479" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z479" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA479" t="s">
         <v>1457</v>
@@ -61382,7 +61382,7 @@
         <v>1456</v>
       </c>
       <c r="AB483" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC483" t="s">
         <v>515</v>
@@ -61798,7 +61798,7 @@
         <v>1457</v>
       </c>
       <c r="AB487" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC487" t="s">
         <v>519</v>
@@ -62211,7 +62211,7 @@
         <v>1457</v>
       </c>
       <c r="AA491" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AB491" t="s">
         <v>1457</v>
@@ -62627,7 +62627,7 @@
         <v>1456</v>
       </c>
       <c r="AA495" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB495" t="s">
         <v>1457</v>
@@ -64077,7 +64077,7 @@
         <v>1451</v>
       </c>
       <c r="Y509" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z509" t="s">
         <v>1457</v>
@@ -64181,7 +64181,7 @@
         <v>1453</v>
       </c>
       <c r="Y510" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z510" t="s">
         <v>1456</v>
@@ -64398,7 +64398,7 @@
         <v>1456</v>
       </c>
       <c r="AB512" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC512" t="s">
         <v>544</v>
@@ -65120,7 +65120,7 @@
         <v>1455</v>
       </c>
       <c r="Z519" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA519" t="s">
         <v>1457</v>
@@ -65221,7 +65221,7 @@
         <v>1453</v>
       </c>
       <c r="Y520" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z520" t="s">
         <v>1457</v>
@@ -65328,10 +65328,10 @@
         <v>1457</v>
       </c>
       <c r="Z521" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA521" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB521" t="s">
         <v>1455</v>
@@ -65744,7 +65744,7 @@
         <v>1456</v>
       </c>
       <c r="Z525" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA525" t="s">
         <v>1457</v>
@@ -66053,10 +66053,10 @@
         <v>1451</v>
       </c>
       <c r="Y528" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z528" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA528" t="s">
         <v>1456</v>
@@ -66160,7 +66160,7 @@
         <v>1456</v>
       </c>
       <c r="Z529" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA529" t="s">
         <v>1457</v>
@@ -66264,7 +66264,7 @@
         <v>1457</v>
       </c>
       <c r="Z530" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA530" t="s">
         <v>1455</v>
@@ -66677,10 +66677,10 @@
         <v>1453</v>
       </c>
       <c r="Y534" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z534" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA534" t="s">
         <v>1455</v>
@@ -66891,7 +66891,7 @@
         <v>1457</v>
       </c>
       <c r="AA536" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB536" t="s">
         <v>1456</v>
@@ -67509,7 +67509,7 @@
         <v>1453</v>
       </c>
       <c r="Y542" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z542" t="s">
         <v>1456</v>
@@ -67518,7 +67518,7 @@
         <v>1457</v>
       </c>
       <c r="AB542" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC542" t="s">
         <v>574</v>
@@ -67717,7 +67717,7 @@
         <v>1450</v>
       </c>
       <c r="Y544" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z544" t="s">
         <v>1456</v>
@@ -67824,7 +67824,7 @@
         <v>1457</v>
       </c>
       <c r="Z545" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA545" t="s">
         <v>1455</v>
@@ -68029,7 +68029,7 @@
         <v>1453</v>
       </c>
       <c r="Y547" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z547" t="s">
         <v>1457</v>
@@ -68133,7 +68133,7 @@
         <v>1450</v>
       </c>
       <c r="Y548" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z548" t="s">
         <v>1455</v>
@@ -68347,7 +68347,7 @@
         <v>1455</v>
       </c>
       <c r="AA550" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AB550" t="s">
         <v>1457</v>
@@ -68757,7 +68757,7 @@
         <v>1453</v>
       </c>
       <c r="Y554" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z554" t="s">
         <v>1456</v>
@@ -69384,13 +69384,13 @@
         <v>1456</v>
       </c>
       <c r="Z560" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA560" t="s">
         <v>1457</v>
       </c>
       <c r="AB560" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC560" t="s">
         <v>592</v>
@@ -69589,7 +69589,7 @@
         <v>1450</v>
       </c>
       <c r="Y562" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z562" t="s">
         <v>1456</v>
@@ -69901,7 +69901,7 @@
         <v>1453</v>
       </c>
       <c r="Y565" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z565" t="s">
         <v>1457</v>
@@ -70112,7 +70112,7 @@
         <v>1457</v>
       </c>
       <c r="Z567" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA567" t="s">
         <v>1455</v>
@@ -70638,7 +70638,7 @@
         <v>1457</v>
       </c>
       <c r="AB572" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC572" t="s">
         <v>604</v>
@@ -70742,7 +70742,7 @@
         <v>1456</v>
       </c>
       <c r="AB573" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC573" t="s">
         <v>605</v>
@@ -70947,7 +70947,7 @@
         <v>1456</v>
       </c>
       <c r="AA575" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB575" t="s">
         <v>1457</v>
@@ -71051,7 +71051,7 @@
         <v>1457</v>
       </c>
       <c r="AA576" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB576" t="s">
         <v>1457</v>
@@ -71883,7 +71883,7 @@
         <v>1455</v>
       </c>
       <c r="AA584" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AB584" t="s">
         <v>1457</v>
@@ -73238,7 +73238,7 @@
         <v>1455</v>
       </c>
       <c r="AB597" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC597" t="s">
         <v>629</v>
@@ -73336,7 +73336,7 @@
         <v>1455</v>
       </c>
       <c r="Z598" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA598" t="s">
         <v>1457</v>
@@ -74174,7 +74174,7 @@
         <v>1457</v>
       </c>
       <c r="AB606" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AC606" t="s">
         <v>638</v>
@@ -74483,7 +74483,7 @@
         <v>1455</v>
       </c>
       <c r="AA609" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB609" t="s">
         <v>1457</v>
@@ -74581,7 +74581,7 @@
         <v>1453</v>
       </c>
       <c r="Y610" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Z610" t="s">
         <v>1457</v>
@@ -74688,10 +74688,10 @@
         <v>1455</v>
       </c>
       <c r="Z611" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA611" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB611" t="s">
         <v>1457</v>
@@ -74792,7 +74792,7 @@
         <v>1457</v>
       </c>
       <c r="Z612" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA612" t="s">
         <v>1457</v>
@@ -75104,7 +75104,7 @@
         <v>1455</v>
       </c>
       <c r="Z615" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA615" t="s">
         <v>1455</v>
@@ -75214,7 +75214,7 @@
         <v>1457</v>
       </c>
       <c r="AB616" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AC616" t="s">
         <v>648</v>
@@ -75318,7 +75318,7 @@
         <v>1457</v>
       </c>
       <c r="AB617" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AC617" t="s">
         <v>649</v>
@@ -75517,7 +75517,7 @@
         <v>1450</v>
       </c>
       <c r="Y619" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Z619" t="s">
         <v>1455</v>
@@ -75630,7 +75630,7 @@
         <v>1457</v>
       </c>
       <c r="AB620" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC620" t="s">
         <v>652</v>
@@ -75835,7 +75835,7 @@
         <v>1457</v>
       </c>
       <c r="AA622" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AB622" t="s">
         <v>1457</v>
@@ -76560,10 +76560,10 @@
         <v>1456</v>
       </c>
       <c r="Z629" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AA629" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB629" t="s">
         <v>1456</v>
@@ -76774,7 +76774,7 @@
         <v>1457</v>
       </c>
       <c r="AB631" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AC631" t="s">
         <v>663</v>
@@ -76976,7 +76976,7 @@
         <v>1455</v>
       </c>
       <c r="Z633" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AA633" t="s">
         <v>1455</v>
